--- a/Data/03_Arbeid og næringsliv/01_Arbeidsliv/NAV/Arbeidsledighet/2025-08-05.xlsx
+++ b/Data/03_Arbeid og næringsliv/01_Arbeidsliv/NAV/Arbeidsledighet/2025-08-05.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="11_BFFDE724961DBABEF319EE1EFE807F79BF77518F" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="38610" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="38610" windowHeight="20985" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Landet" sheetId="1" r:id="rId1"/>
@@ -709,9 +709,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:R9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="4" width="10.7109375" customWidth="1"/>
@@ -1018,7 +1018,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="4" width="10.7109375" customWidth="1"/>
@@ -4885,7 +4885,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="3" width="10.7109375" customWidth="1"/>
@@ -8842,9 +8842,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:G18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="4" width="10.7109375" customWidth="1"/>
@@ -9187,9 +9189,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:G255"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="4" width="10.7109375" customWidth="1"/>
@@ -14272,9 +14276,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B1:G233"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.7109375" customWidth="1"/>
     <col min="2" max="3" width="10.7109375" customWidth="1"/>
@@ -18918,9 +18924,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B1:D18"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
@@ -19118,9 +19126,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="B1:F271"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="3" width="10.7109375" customWidth="1"/>
@@ -23714,9 +23724,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B1:F234"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1" customWidth="1"/>
     <col min="2" max="2" width="10.7109375" customWidth="1"/>
